--- a/PowerBI_Reportes/Ventas_Centroamerica_Ubicacion_.xlsx
+++ b/PowerBI_Reportes/Ventas_Centroamerica_Ubicacion_.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Portafolio\Portafolio_JEDF15\PowerBI_Reportes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42EFE01-8CFC-4B54-A82B-913AEBD4600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -127,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +197,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,14 +494,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -534,7 +565,7 @@
         <v>14.6349</v>
       </c>
       <c r="E2">
-        <v>-90.5069</v>
+        <v>-90.506900000000002</v>
       </c>
       <c r="F2">
         <v>2025</v>
@@ -555,7 +586,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -566,10 +597,10 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>14.8456</v>
+        <v>14.845599999999999</v>
       </c>
       <c r="E3">
-        <v>-91.5189</v>
+        <v>-91.518900000000002</v>
       </c>
       <c r="F3">
         <v>2025</v>
@@ -590,7 +621,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -604,7 +635,7 @@
         <v>13.6929</v>
       </c>
       <c r="E4">
-        <v>-89.2182</v>
+        <v>-89.218199999999996</v>
       </c>
       <c r="F4">
         <v>2025</v>
@@ -625,7 +656,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -639,7 +670,7 @@
         <v>13.9946</v>
       </c>
       <c r="E5">
-        <v>-89.55970000000001</v>
+        <v>-89.559700000000007</v>
       </c>
       <c r="F5">
         <v>2025</v>
@@ -660,7 +691,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -674,7 +705,7 @@
         <v>15.5007</v>
       </c>
       <c r="E6">
-        <v>-88.02500000000001</v>
+        <v>-88.025000000000006</v>
       </c>
       <c r="F6">
         <v>2025</v>
@@ -695,7 +726,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -709,7 +740,7 @@
         <v>14.0723</v>
       </c>
       <c r="E7">
-        <v>-87.1921</v>
+        <v>-87.192099999999996</v>
       </c>
       <c r="F7">
         <v>2025</v>
@@ -730,7 +761,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -744,7 +775,7 @@
         <v>12.1364</v>
       </c>
       <c r="E8">
-        <v>-86.2514</v>
+        <v>-86.251400000000004</v>
       </c>
       <c r="F8">
         <v>2025</v>
@@ -765,7 +796,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -776,10 +807,10 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>12.4333</v>
+        <v>12.433299999999999</v>
       </c>
       <c r="E9">
-        <v>-86.87309999999999</v>
+        <v>-86.873099999999994</v>
       </c>
       <c r="F9">
         <v>2025</v>
@@ -800,7 +831,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -811,10 +842,10 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>9.928100000000001</v>
+        <v>9.9281000000000006</v>
       </c>
       <c r="E10">
-        <v>-84.0907</v>
+        <v>-84.090699999999998</v>
       </c>
       <c r="F10">
         <v>2025</v>
@@ -835,7 +866,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -849,7 +880,7 @@
         <v>10.0162</v>
       </c>
       <c r="E11">
-        <v>-84.2116</v>
+        <v>-84.211600000000004</v>
       </c>
       <c r="F11">
         <v>2025</v>
@@ -870,7 +901,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -881,10 +912,10 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>8.9824</v>
+        <v>8.9824000000000002</v>
       </c>
       <c r="E12">
-        <v>-79.51990000000001</v>
+        <v>-79.519900000000007</v>
       </c>
       <c r="F12">
         <v>2025</v>
@@ -905,7 +936,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -916,10 +947,10 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>9.3596</v>
+        <v>9.3596000000000004</v>
       </c>
       <c r="E13">
-        <v>-79.90130000000001</v>
+        <v>-79.901300000000006</v>
       </c>
       <c r="F13">
         <v>2025</v>
